--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV4.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VARADHA\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -847,7 +847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -873,11 +873,236 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -888,6 +1113,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -897,60 +1128,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -963,193 +1146,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1190,7 +1193,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C49DEEE2-46A4-4EEB-BCA1-765717414229}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C49DEEE2-46A4-4EEB-BCA1-765717414229}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1240,7 +1243,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87265926-2640-40B0-B58C-3F2CCAA85BF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87265926-2640-40B0-B58C-3F2CCAA85BF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,7 +1322,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4AE46B-CB57-45A9-9BEE-2B59033659A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE4AE46B-CB57-45A9-9BEE-2B59033659A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,223 +1750,223 @@
   <dimension ref="B1:X64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:Q13"/>
+      <selection activeCell="D8" activeCellId="1" sqref="K8:Q8 D8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="4.7109375" style="1" customWidth="1"/>
-    <col min="5" max="17" width="5.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="0.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="0.7265625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="4.7265625" style="1" customWidth="1"/>
+    <col min="5" max="17" width="5.7265625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="0.7265625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.7265625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="33" t="s">
+    <row r="1" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="42"/>
-    </row>
-    <row r="2" spans="2:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="63" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="29"/>
+    </row>
+    <row r="2" spans="2:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="65"/>
-    </row>
-    <row r="3" spans="2:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="66" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32"/>
+    </row>
+    <row r="3" spans="2:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="68"/>
-    </row>
-    <row r="4" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="71"/>
-    </row>
-    <row r="5" spans="2:24" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="B6" s="72" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
+    </row>
+    <row r="4" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
+    </row>
+    <row r="5" spans="2:24" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="75"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="42"/>
       <c r="T6" s="7"/>
       <c r="U6" s="8"/>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="76" t="s">
+    <row r="7" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="85" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="86"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="62"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
     </row>
-    <row r="8" spans="2:24" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="78" t="s">
+    <row r="8" spans="2:24" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="88" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="84"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="58"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="101"/>
       <c r="T8" s="7"/>
       <c r="U8" s="8"/>
       <c r="V8" s="7"/>
     </row>
-    <row r="9" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="80" t="s">
+    <row r="9" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="90" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="83"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="93"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="81" t="s">
+    <row r="10" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="94" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="98"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="65"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="2:24" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1983,543 +1986,504 @@
       <c r="T11" s="5"/>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="2:24" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="99" t="s">
+    <row r="12" spans="2:24" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="101"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="68"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
     </row>
-    <row r="13" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="52"/>
-    </row>
-    <row r="14" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
-    </row>
-    <row r="15" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="48"/>
-    </row>
-    <row r="16" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="48"/>
-    </row>
-    <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="48"/>
-    </row>
-    <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="48"/>
-    </row>
-    <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="48"/>
-    </row>
-    <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="48"/>
-    </row>
-    <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="48"/>
-    </row>
-    <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="48"/>
-    </row>
-    <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="48"/>
-    </row>
-    <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="48"/>
-    </row>
-    <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="48"/>
-    </row>
-    <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="48"/>
-    </row>
-    <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="48"/>
-    </row>
-    <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="48"/>
-    </row>
-    <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="48"/>
-    </row>
-    <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="48"/>
-    </row>
-    <row r="31" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="45"/>
-    </row>
-    <row r="32" spans="2:17" ht="5.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="21" t="s">
+    <row r="13" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="71"/>
+    </row>
+    <row r="14" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="74"/>
+    </row>
+    <row r="15" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="57"/>
+    </row>
+    <row r="16" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="57"/>
+    </row>
+    <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="57"/>
+    </row>
+    <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="57"/>
+    </row>
+    <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="57"/>
+    </row>
+    <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="57"/>
+    </row>
+    <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="55"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="57"/>
+    </row>
+    <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="57"/>
+    </row>
+    <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="57"/>
+    </row>
+    <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="57"/>
+    </row>
+    <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="57"/>
+    </row>
+    <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="57"/>
+    </row>
+    <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="57"/>
+    </row>
+    <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="57"/>
+    </row>
+    <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="57"/>
+    </row>
+    <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="57"/>
+    </row>
+    <row r="31" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="75"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="77"/>
+    </row>
+    <row r="32" spans="2:17" ht="5.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22" t="s">
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22" t="s">
+      <c r="K33" s="79"/>
+      <c r="L33" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22" t="s">
+      <c r="M33" s="79"/>
+      <c r="N33" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22" t="s">
+      <c r="O33" s="79"/>
+      <c r="P33" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="Q33" s="23"/>
-    </row>
-    <row r="34" spans="2:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="39" t="s">
+      <c r="Q33" s="80"/>
+    </row>
+    <row r="34" spans="2:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="40" t="s">
+      <c r="C34" s="85"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="41"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="10"/>
-    </row>
-    <row r="35" spans="2:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="39" t="s">
+      <c r="I34" s="90"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="83"/>
+    </row>
+    <row r="35" spans="2:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="40" t="s">
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="41"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="10"/>
-    </row>
-    <row r="36" spans="2:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="35" t="s">
+      <c r="I35" s="90"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="83"/>
+    </row>
+    <row r="36" spans="2:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="37" t="s">
+      <c r="C36" s="97"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="38"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="10"/>
-    </row>
-    <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="83"/>
+    </row>
+    <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="B12:Q12"/>
-    <mergeCell ref="B13:Q13"/>
-    <mergeCell ref="B14:Q14"/>
-    <mergeCell ref="B15:Q15"/>
-    <mergeCell ref="B16:Q16"/>
-    <mergeCell ref="B17:Q17"/>
-    <mergeCell ref="B18:Q18"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="B20:Q20"/>
-    <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B22:Q22"/>
-    <mergeCell ref="B23:Q23"/>
-    <mergeCell ref="B24:Q24"/>
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B26:Q26"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B28:Q28"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="P34:Q34"/>
     <mergeCell ref="B35:C35"/>
@@ -2534,13 +2498,52 @@
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="L34:M34"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="B20:Q20"/>
+    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B22:Q22"/>
+    <mergeCell ref="B23:Q23"/>
+    <mergeCell ref="B24:Q24"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B26:Q26"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B28:Q28"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="B12:Q12"/>
+    <mergeCell ref="B13:Q13"/>
+    <mergeCell ref="B14:Q14"/>
+    <mergeCell ref="B15:Q15"/>
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="B17:Q17"/>
+    <mergeCell ref="B18:Q18"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="B6:Q6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
@@ -2558,15 +2561,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -2763,6 +2757,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
   <ds:schemaRefs>
@@ -2781,14 +2784,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2805,4 +2800,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV4.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV4.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t xml:space="preserve">CONTRACT NO: PWD/HO/B130/2019 </t>
   </si>
@@ -147,6 +147,12 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>Endaya Construction Sdn Bhd</t>
+  </si>
+  <si>
+    <t>JKR Sarawak, Miri Division</t>
   </si>
 </sst>
 </file>
@@ -873,6 +879,186 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,186 +1159,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="11" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1193,7 +1199,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C49DEEE2-46A4-4EEB-BCA1-765717414229}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C49DEEE2-46A4-4EEB-BCA1-765717414229}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,7 +1249,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87265926-2640-40B0-B58C-3F2CCAA85BF6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87265926-2640-40B0-B58C-3F2CCAA85BF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1328,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE4AE46B-CB57-45A9-9BEE-2B59033659A6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4AE46B-CB57-45A9-9BEE-2B59033659A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1749,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="D8" activeCellId="1" sqref="K8:Q8 D8:G8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A30" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1764,202 +1770,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="27" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="29"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="89"/>
     </row>
     <row r="2" spans="2:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="30" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="92"/>
     </row>
     <row r="3" spans="2:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="33" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="35"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="95"/>
     </row>
     <row r="4" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
     </row>
     <row r="5" spans="2:24" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="42"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="102"/>
       <c r="T6" s="7"/>
       <c r="U6" s="8"/>
       <c r="V6" s="7"/>
     </row>
     <row r="7" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13" t="s">
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="77"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
     </row>
     <row r="8" spans="2:24" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="46" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="101"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="61"/>
       <c r="T8" s="7"/>
       <c r="U8" s="8"/>
       <c r="V8" s="7"/>
     </row>
     <row r="9" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="50" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="68"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
     </row>
     <row r="10" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="65"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="44"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
@@ -1987,465 +1993,471 @@
       <c r="U11" s="6"/>
     </row>
     <row r="12" spans="2:24" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="68"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="47"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
     </row>
     <row r="13" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="71"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="50"/>
     </row>
     <row r="14" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="74"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="53"/>
     </row>
     <row r="15" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="57"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="36"/>
     </row>
     <row r="16" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="57"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="36"/>
     </row>
     <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="57"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="36"/>
     </row>
     <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="57"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="36"/>
     </row>
     <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="57"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="36"/>
     </row>
     <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="57"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="36"/>
     </row>
     <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="57"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="36"/>
     </row>
     <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="57"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="57"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="57"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="36"/>
     </row>
     <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="57"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="36"/>
     </row>
     <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="57"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="36"/>
     </row>
     <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="57"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="36"/>
     </row>
     <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="57"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="36"/>
     </row>
     <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="57"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="36"/>
     </row>
     <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="57"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="36"/>
     </row>
     <row r="31" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="75"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="77"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="33"/>
     </row>
     <row r="32" spans="2:17" ht="5.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79" t="s">
+      <c r="K33" s="29"/>
+      <c r="L33" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79" t="s">
+      <c r="M33" s="29"/>
+      <c r="N33" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="O33" s="79"/>
-      <c r="P33" s="79" t="s">
+      <c r="O33" s="29"/>
+      <c r="P33" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q33" s="80"/>
+      <c r="Q33" s="30"/>
     </row>
     <row r="34" spans="2:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="89" t="s">
+      <c r="C34" s="23"/>
+      <c r="D34" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="90"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="83"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="10"/>
     </row>
     <row r="35" spans="2:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="84" t="s">
+      <c r="B35" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="89" t="s">
+      <c r="C35" s="23"/>
+      <c r="D35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="90"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="93"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="83"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="10"/>
     </row>
     <row r="36" spans="2:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="97"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="98" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="99"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="93"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="83"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="10"/>
     </row>
     <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2477,13 +2489,52 @@
     <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="B12:Q12"/>
+    <mergeCell ref="B13:Q13"/>
+    <mergeCell ref="B14:Q14"/>
+    <mergeCell ref="B15:Q15"/>
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="B17:Q17"/>
+    <mergeCell ref="B18:Q18"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="B20:Q20"/>
+    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B22:Q22"/>
+    <mergeCell ref="B23:Q23"/>
+    <mergeCell ref="B24:Q24"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B26:Q26"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B28:Q28"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="P34:Q34"/>
     <mergeCell ref="B35:C35"/>
@@ -2498,52 +2549,13 @@
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="L34:M34"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="B20:Q20"/>
-    <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B22:Q22"/>
-    <mergeCell ref="B23:Q23"/>
-    <mergeCell ref="B24:Q24"/>
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B26:Q26"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B28:Q28"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="B12:Q12"/>
-    <mergeCell ref="B13:Q13"/>
-    <mergeCell ref="B14:Q14"/>
-    <mergeCell ref="B15:Q15"/>
-    <mergeCell ref="B16:Q16"/>
-    <mergeCell ref="B17:Q17"/>
-    <mergeCell ref="B18:Q18"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
@@ -2555,9 +2567,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2758,27 +2773,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2803,9 +2806,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV4.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV4.xlsx
@@ -879,11 +879,272 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -891,274 +1152,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="11" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1199,7 +1199,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C49DEEE2-46A4-4EEB-BCA1-765717414229}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C49DEEE2-46A4-4EEB-BCA1-765717414229}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1249,7 +1249,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87265926-2640-40B0-B58C-3F2CCAA85BF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87265926-2640-40B0-B58C-3F2CCAA85BF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,7 +1328,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4AE46B-CB57-45A9-9BEE-2B59033659A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE4AE46B-CB57-45A9-9BEE-2B59033659A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1756,7 +1756,7 @@
   <dimension ref="B1:X64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A30" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:G36"/>
+      <selection activeCell="P34" sqref="P34:Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1770,202 +1770,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="78"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="87" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="89"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="2:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="81"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="92"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="2:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="81"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="93" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="95"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
     </row>
     <row r="4" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="2:24" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="102"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="42"/>
       <c r="T6" s="7"/>
       <c r="U6" s="8"/>
       <c r="V6" s="7"/>
     </row>
     <row r="7" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="77"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
     </row>
     <row r="8" spans="2:24" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="57" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="61"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="50"/>
       <c r="T8" s="7"/>
       <c r="U8" s="8"/>
       <c r="V8" s="7"/>
     </row>
     <row r="9" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="65"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="68"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="57"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
     </row>
     <row r="10" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="44"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="68"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
@@ -1993,471 +1993,471 @@
       <c r="U11" s="6"/>
     </row>
     <row r="12" spans="2:24" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="47"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="71"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
     </row>
     <row r="13" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="50"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="74"/>
     </row>
     <row r="14" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="53"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="77"/>
     </row>
     <row r="15" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="36"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
     </row>
     <row r="16" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="36"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="60"/>
     </row>
     <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="36"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="60"/>
     </row>
     <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="36"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="60"/>
     </row>
     <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="36"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="60"/>
     </row>
     <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="36"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="60"/>
     </row>
     <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="36"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="60"/>
     </row>
     <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="36"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="60"/>
     </row>
     <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="36"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="60"/>
     </row>
     <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="36"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="60"/>
     </row>
     <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="36"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="60"/>
     </row>
     <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="36"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="60"/>
     </row>
     <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="36"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="60"/>
     </row>
     <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="36"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="60"/>
     </row>
     <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="36"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="60"/>
     </row>
     <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="36"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="60"/>
     </row>
     <row r="31" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="33"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="80"/>
     </row>
     <row r="32" spans="2:17" ht="5.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29" t="s">
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29" t="s">
+      <c r="K33" s="82"/>
+      <c r="L33" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29" t="s">
+      <c r="M33" s="82"/>
+      <c r="N33" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29" t="s">
+      <c r="O33" s="82"/>
+      <c r="P33" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="Q33" s="30"/>
+      <c r="Q33" s="83"/>
     </row>
     <row r="34" spans="2:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="26" t="s">
+      <c r="C34" s="87"/>
+      <c r="D34" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="24" t="s">
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="10"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="102"/>
     </row>
     <row r="35" spans="2:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="13" t="s">
+      <c r="C35" s="87"/>
+      <c r="D35" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="24" t="s">
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="25"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="10"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="102"/>
     </row>
     <row r="36" spans="2:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13" t="s">
+      <c r="C36" s="99"/>
+      <c r="D36" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="16" t="s">
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="10"/>
+      <c r="I36" s="101"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="102"/>
     </row>
     <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2489,52 +2489,13 @@
     <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="B12:Q12"/>
-    <mergeCell ref="B13:Q13"/>
-    <mergeCell ref="B14:Q14"/>
-    <mergeCell ref="B15:Q15"/>
-    <mergeCell ref="B16:Q16"/>
-    <mergeCell ref="B17:Q17"/>
-    <mergeCell ref="B18:Q18"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="B20:Q20"/>
-    <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B22:Q22"/>
-    <mergeCell ref="B23:Q23"/>
-    <mergeCell ref="B24:Q24"/>
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B26:Q26"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B28:Q28"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="P34:Q34"/>
     <mergeCell ref="B35:C35"/>
@@ -2549,13 +2510,52 @@
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="L34:M34"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="B20:Q20"/>
+    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B22:Q22"/>
+    <mergeCell ref="B23:Q23"/>
+    <mergeCell ref="B24:Q24"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B26:Q26"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B28:Q28"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="B12:Q12"/>
+    <mergeCell ref="B13:Q13"/>
+    <mergeCell ref="B14:Q14"/>
+    <mergeCell ref="B15:Q15"/>
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="B17:Q17"/>
+    <mergeCell ref="B18:Q18"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="B6:Q6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
@@ -2567,15 +2567,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -2772,6 +2763,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2779,14 +2779,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2801,6 +2793,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV4.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV4.xlsx
@@ -853,7 +853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -879,11 +879,269 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -891,274 +1149,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="11" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1199,7 +1196,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C49DEEE2-46A4-4EEB-BCA1-765717414229}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C49DEEE2-46A4-4EEB-BCA1-765717414229}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1249,7 +1246,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87265926-2640-40B0-B58C-3F2CCAA85BF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87265926-2640-40B0-B58C-3F2CCAA85BF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,7 +1325,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4AE46B-CB57-45A9-9BEE-2B59033659A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE4AE46B-CB57-45A9-9BEE-2B59033659A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1755,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A30" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:G36"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1770,202 +1767,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="78"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="87" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="89"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
     </row>
     <row r="2" spans="2:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="81"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="92"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="2:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="81"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="93" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="95"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="34"/>
     </row>
     <row r="4" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="37"/>
     </row>
     <row r="5" spans="2:24" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="102"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="41"/>
       <c r="T6" s="7"/>
       <c r="U6" s="8"/>
       <c r="V6" s="7"/>
     </row>
     <row r="7" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="77"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
     </row>
     <row r="8" spans="2:24" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="57" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="61"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="49"/>
       <c r="T8" s="7"/>
       <c r="U8" s="8"/>
       <c r="V8" s="7"/>
     </row>
     <row r="9" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64" t="s">
+      <c r="C9" s="43"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="65"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="68"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="56"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
     </row>
     <row r="10" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="44"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="67"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
@@ -1993,471 +1990,471 @@
       <c r="U11" s="6"/>
     </row>
     <row r="12" spans="2:24" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="47"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="70"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
     </row>
     <row r="13" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="50"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="73"/>
     </row>
     <row r="14" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="53"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="76"/>
     </row>
     <row r="15" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="36"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="59"/>
     </row>
     <row r="16" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="36"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="59"/>
     </row>
     <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="36"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="59"/>
     </row>
     <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="36"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="59"/>
     </row>
     <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="36"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="59"/>
     </row>
     <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="36"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="59"/>
     </row>
     <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="36"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="59"/>
     </row>
     <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="36"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="59"/>
     </row>
     <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="36"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="59"/>
     </row>
     <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="36"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="59"/>
     </row>
     <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="36"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="59"/>
     </row>
     <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="36"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="59"/>
     </row>
     <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="36"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="59"/>
     </row>
     <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="36"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="59"/>
     </row>
     <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="36"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="59"/>
     </row>
     <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="36"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="59"/>
     </row>
     <row r="31" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="33"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="79"/>
     </row>
     <row r="32" spans="2:17" ht="5.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29" t="s">
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29" t="s">
+      <c r="K33" s="81"/>
+      <c r="L33" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29" t="s">
+      <c r="M33" s="81"/>
+      <c r="N33" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29" t="s">
+      <c r="O33" s="81"/>
+      <c r="P33" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="Q33" s="30"/>
+      <c r="Q33" s="82"/>
     </row>
     <row r="34" spans="2:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="26" t="s">
+      <c r="C34" s="86"/>
+      <c r="D34" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="24" t="s">
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="10"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="101"/>
     </row>
     <row r="35" spans="2:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="13" t="s">
+      <c r="C35" s="86"/>
+      <c r="D35" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="24" t="s">
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="25"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="10"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="101"/>
     </row>
     <row r="36" spans="2:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13" t="s">
+      <c r="C36" s="98"/>
+      <c r="D36" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="16" t="s">
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="10"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="83"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="101"/>
     </row>
     <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2489,52 +2486,13 @@
     <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="B12:Q12"/>
-    <mergeCell ref="B13:Q13"/>
-    <mergeCell ref="B14:Q14"/>
-    <mergeCell ref="B15:Q15"/>
-    <mergeCell ref="B16:Q16"/>
-    <mergeCell ref="B17:Q17"/>
-    <mergeCell ref="B18:Q18"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="B20:Q20"/>
-    <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B22:Q22"/>
-    <mergeCell ref="B23:Q23"/>
-    <mergeCell ref="B24:Q24"/>
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B26:Q26"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B28:Q28"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="P34:Q34"/>
     <mergeCell ref="B35:C35"/>
@@ -2549,13 +2507,52 @@
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="L34:M34"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="B20:Q20"/>
+    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B22:Q22"/>
+    <mergeCell ref="B23:Q23"/>
+    <mergeCell ref="B24:Q24"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B26:Q26"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B28:Q28"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="B12:Q12"/>
+    <mergeCell ref="B13:Q13"/>
+    <mergeCell ref="B14:Q14"/>
+    <mergeCell ref="B15:Q15"/>
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="B17:Q17"/>
+    <mergeCell ref="B18:Q18"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="B6:Q6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
@@ -2576,6 +2573,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -2772,12 +2775,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
   <ds:schemaRefs>
@@ -2787,6 +2784,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2803,21 +2817,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV4.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV4.xlsx
@@ -853,7 +853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -886,9 +886,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1755,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A30" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34:Q36"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1770,103 +1767,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="27" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="29"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
     </row>
     <row r="2" spans="2:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="30" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="2:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="33" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="35"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="34"/>
     </row>
     <row r="4" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="37"/>
     </row>
     <row r="5" spans="2:24" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="42"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="41"/>
       <c r="T6" s="7"/>
       <c r="U6" s="8"/>
       <c r="V6" s="7"/>
@@ -1877,95 +1874,95 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
     </row>
     <row r="8" spans="2:24" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="50"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="49"/>
       <c r="T8" s="7"/>
       <c r="U8" s="8"/>
       <c r="V8" s="7"/>
     </row>
     <row r="9" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53" t="s">
+      <c r="C9" s="43"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="57"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="56"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
     </row>
     <row r="10" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="68"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="67"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
@@ -1993,471 +1990,471 @@
       <c r="U11" s="6"/>
     </row>
     <row r="12" spans="2:24" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="71"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="70"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
     </row>
     <row r="13" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="74"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="73"/>
     </row>
     <row r="14" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="77"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="76"/>
     </row>
     <row r="15" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="60"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="59"/>
     </row>
     <row r="16" spans="2:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="60"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="59"/>
     </row>
     <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="60"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="59"/>
     </row>
     <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="60"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="59"/>
     </row>
     <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="60"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="59"/>
     </row>
     <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="60"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="59"/>
     </row>
     <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="60"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="59"/>
     </row>
     <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="60"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="59"/>
     </row>
     <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="60"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="59"/>
     </row>
     <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="60"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="59"/>
     </row>
     <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="60"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="59"/>
     </row>
     <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="60"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="59"/>
     </row>
     <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="60"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="59"/>
     </row>
     <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="60"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="59"/>
     </row>
     <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="60"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="59"/>
     </row>
     <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="58"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="60"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="59"/>
     </row>
     <row r="31" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="78"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="80"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="79"/>
     </row>
     <row r="32" spans="2:17" ht="5.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82" t="s">
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82" t="s">
+      <c r="K33" s="81"/>
+      <c r="L33" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82" t="s">
+      <c r="M33" s="81"/>
+      <c r="N33" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="O33" s="82"/>
-      <c r="P33" s="82" t="s">
+      <c r="O33" s="81"/>
+      <c r="P33" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="Q33" s="83"/>
+      <c r="Q33" s="82"/>
     </row>
     <row r="34" spans="2:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="87"/>
-      <c r="D34" s="96" t="s">
+      <c r="C34" s="86"/>
+      <c r="D34" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="91" t="s">
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="92"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="102"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="101"/>
     </row>
     <row r="35" spans="2:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="88" t="s">
+      <c r="C35" s="86"/>
+      <c r="D35" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="91" t="s">
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="92"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="93"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="102"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="101"/>
     </row>
     <row r="36" spans="2:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="98" t="s">
+      <c r="B36" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="88" t="s">
+      <c r="C36" s="98"/>
+      <c r="D36" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="100" t="s">
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="101"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="93"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="102"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="83"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="101"/>
     </row>
     <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2567,6 +2564,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -2763,22 +2775,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2795,29 +2817,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>